--- a/ig/minimal-r4/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-fish-patient.xlsx
+++ b/ig/minimal-r4/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-fish-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T07:29:18+00:00</t>
+    <t>2022-05-26T07:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/minimal-r4/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-fish-patient.xlsx
+++ b/ig/minimal-r4/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-fish-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T07:46:49+00:00</t>
+    <t>2022-05-26T07:53:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/minimal-r4/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-fish-patient.xlsx
+++ b/ig/minimal-r4/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-fish-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T07:53:45+00:00</t>
+    <t>2022-05-26T08:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/minimal-r4/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-fish-patient.xlsx
+++ b/ig/minimal-r4/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-fish-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T08:11:08+00:00</t>
+    <t>2022-05-26T08:37:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
